--- a/biology/Écologie/Démécologie/Démécologie.xlsx
+++ b/biology/Écologie/Démécologie/Démécologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
+          <t>Démécologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La démécologie est synonyme d'écologie des populations d'une espèce.
 Elle a pour objet de comprendre, mesurer et prédire les variations de la taille des populations et de l’occurrence de caractéristiques génétiques, phénotypiques, comportementales et culturelles au sein des populations. La démécologie consiste donc à étudier :
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
+          <t>Démécologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Particularité au sein de l'écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La démécologie se distingue de l'autécologie et de la synécologie par son objet d'étude et de sa spatio-temporalité particulière : respectivement les populations d'une espèce (démécologie), les individus selon les milieux (autécologie) et les communautés d'espèces (synécologie).
 Cette branche de l'écologie étudie les mécanismes biologiques, les processus évolutifs et environnementaux qui régissent les effectifs des populations et de métapopulation d'êtres vivants d'une même espèce, leur répartition et leur abondance dans temps évolutifs courts (supérieure à la durée de vie d'un individu mais inférieure à la durée de vie d'une espèce) et dans des espaces explicités (typiquement de l'aire géographique d'une sous-population ou dème, à l'aire de répartition totale de l'espèce).
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
+          <t>Démécologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,25 +564,226 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Paramètre descriptifs
-Effectif d'une population
-Au cours du temps l'effectif des populations naturelles peut croître, rester stationnaire, fluctuer, ou bien décroître jusqu'à l'extinction. Les populations ne croissent pas indéfiniment, elles sont limitées.
-La densité
-Avec une bonne estimation de la taille de la population, on est en mesure de calculer des densités.
+          <t>Paramètre descriptifs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Effectif d'une population</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours du temps l'effectif des populations naturelles peut croître, rester stationnaire, fluctuer, ou bien décroître jusqu'à l'extinction. Les populations ne croissent pas indéfiniment, elles sont limitées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description d'une population</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paramètre descriptifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>La densité</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec une bonne estimation de la taille de la population, on est en mesure de calculer des densités.
 La densité brute est le rapport de l'effectif total de la population ou de sa biomasse sur la surface totale du biotope considéré.
 La densité écologique est le rapport de l'effectif total de la population ou de sa biomasse sur la surface de l'habitat réellement disponible pour l'espèce considérée.
-Distribution (ou répartition) spatiale
-La distribution spatiale est fonction du milieu et du comportement des espèces.
-Métapopulation, Fragmentation écopaysagère
-Structure de l'âge
-On étudie l'âge de la population. Pour les arbres on parle de dendrochronologie, mais pour les animaux, on peut suivre les dents, les cornes la taille des coquilles… Les démographes utilisent des pyramides des âges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description d'une population</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Paramètre descriptifs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Distribution (ou répartition) spatiale</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La distribution spatiale est fonction du milieu et du comportement des espèces.
+Métapopulation, Fragmentation écopaysagère</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description d'une population</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Paramètre descriptifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Structure de l'âge</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On étudie l'âge de la population. Pour les arbres on parle de dendrochronologie, mais pour les animaux, on peut suivre les dents, les cornes la taille des coquilles… Les démographes utilisent des pyramides des âges.
 Connaître la structure de l'âge permet aussi d'élaborer des tables et des courbes de survie.
-Répartition par sexe
-Le sex-ratio est le rapport entre le nombre de mâles et le nombre de femelles. Il est en général égal à 1. Mais chez certaines espèces il dépend de la température.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description d'une population</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Paramètre descriptifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Répartition par sexe</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sex-ratio est le rapport entre le nombre de mâles et le nombre de femelles. Il est en général égal à 1. Mais chez certaines espèces il dépend de la température.
 Voir aussi conflit sexuel.
-Méthodologie scientifique
-Estimations de la taille d'une population
-Faire un dénombrement absolu est toujours difficile, mais on peut par exemple utiliser des photos infra-rouge aériennes. Mais en général on effectue des estimations statistiques : comptages destructifs sur une petite surface, méthodes indirectes (nids, terriers…).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description d'une population</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Méthodologie scientifique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Estimations de la taille d'une population</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Faire un dénombrement absolu est toujours difficile, mais on peut par exemple utiliser des photos infra-rouge aériennes. Mais en général on effectue des estimations statistiques : comptages destructifs sur une petite surface, méthodes indirectes (nids, terriers…).
 la capture/recapture
 Cette technique est beaucoup utilisée sur les oiseaux.
 Lors de la capture on marque les individus. Sur une population totale de N individus on en capture T, ils sont relâchés une fois marqués, au moment de la recapture t individus sont déjà marqués sur les n capturés. Un simple produit en croix permet de faire une estimation de la population : N = (T x n)/t
@@ -580,99 +795,142 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Différence entre « aire de répartition » et « répartition spatiale d'une population »
-Aire de répartition : Zone délimitant la répartition géographique d'une espèce vivante ou de tout autre unité taxonomique qui inclut la totalité de ses populations. L'aire d'une espèce peut-être continue ou au contraire disjointe. (Domaine de la Biogéographie et de la Phytogéographie).
-Répartition spatiale d'une population : Modalité de répartition à l'intérieur d'un biotope des individus constituant une population d'une espèce déterminée. (Domaine de la Dynamique des populations).
-Grands types de répartitions spatiales possibles des individus d'une population
-Sur une surface donnée, les individus peuvent être répartis de différentes façons :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Différence entre « aire de répartition » et « répartition spatiale d'une population »</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Aire de répartition : Zone délimitant la répartition géographique d'une espèce vivante ou de tout autre unité taxonomique qui inclut la totalité de ses populations. L'aire d'une espèce peut-être continue ou au contraire disjointe. (Domaine de la Biogéographie et de la Phytogéographie).
+Répartition spatiale d'une population : Modalité de répartition à l'intérieur d'un biotope des individus constituant une population d'une espèce déterminée. (Domaine de la Dynamique des populations).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Grands types de répartitions spatiales possibles des individus d'une population</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sur une surface donnée, les individus peuvent être répartis de différentes façons :
 uniforme : forte compétitivité intraspécifique provoquant un espacement plus ou moins régulier des individus. Exemple : un peuplement d'arbre dans une forêt tropicale ;
 contagieuse : c'est celle qu'on retrouve le plus souvent. Les mécanismes de reproduction entraînent un rapprochement des couples puis un éloignement après la reproduction, des autres couples donnant l'aspect d'une répartition en agrégats. Exemple : la répartition du loup dans une forêt ;
 aléatoire : assez rare dans la nature car il faut qu'il n'y ait pas de facteurs limitants. Exemple : Le début de l'invasion d'adventices dans un champ de blé.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Dynamique des populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La dynamique des populations s’intéresse au développement numérique de toutes les populations d’êtres vivants, et plus particulièrement de celles des animaux sexués…
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Démécologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9m%C3%A9cologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Exemples d'applications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>L'étude de la dynamique des populations sert par exemple à :
 comprendre (éventuellement pour les prévoir) les variations de la biodiversité, naturelles ou non ;
